--- a/biology/Botanique/Exochordeae/Exochordeae.xlsx
+++ b/biology/Botanique/Exochordeae/Exochordeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Exochordeae sont une tribu de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres ou arbustes à feuilles alternes, simples ; les stipules sont absentes ou caduques (chez Oemleria), (rudimentaires) libres ; la nervation est pennée. Les fleurs ont un périanthe et un androcée périgynes ; l'épicalice est sans bractéoles ; l'hypanthe est campanulé à turbiné ou obturbiné ; le réceptacle est absent ou minuscule ; les cinq (parfois un) carpelles sont distincts ou connés, libres, les styles terminaux distincts ; il y a un ou deux ovules, apicaux et collatéraux. Les fruits sont des capsules ou des drupes agrégées ; les styles ne sont pas persistants sur les fruits, et ne s'allongent pas. Le nombre de base de chromosomes pour les Exochordeae est x = 8[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou arbustes à feuilles alternes, simples ; les stipules sont absentes ou caduques (chez Oemleria), (rudimentaires) libres ; la nervation est pennée. Les fleurs ont un périanthe et un androcée périgynes ; l'épicalice est sans bractéoles ; l'hypanthe est campanulé à turbiné ou obturbiné ; le réceptacle est absent ou minuscule ; les cinq (parfois un) carpelles sont distincts ou connés, libres, les styles terminaux distincts ; il y a un ou deux ovules, apicaux et collatéraux. Les fruits sont des capsules ou des drupes agrégées ; les styles ne sont pas persistants sur les fruits, et ne s'allongent pas. Le nombre de base de chromosomes pour les Exochordeae est x = 8.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tribu est représentée en Amérique du Nord et en Asie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu est représentée en Amérique du Nord et en Asie.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Exochordeae, basé sur le genre type Exochorda, a été proposé pour la première fois en 1964 par le botaniste allemand Georg Karl Wilhelm Schulze-Menz (d)[2], mais sans diagnose latine associée et donc de façon invalide. Il a été validé en 2010 par le botaniste américain James Lauritz Reveal[3].
-Le nom Osmaronieae Rydb., 1918 est illégitime, car basé sur le genre type Osmaronia Greene, substitut superflu à Oemleria[3] ; c'est donc un synonyme replacé[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Exochordeae, basé sur le genre type Exochorda, a été proposé pour la première fois en 1964 par le botaniste allemand Georg Karl Wilhelm Schulze-Menz (d), mais sans diagnose latine associée et donc de façon invalide. Il a été validé en 2010 par le botaniste américain James Lauritz Reveal.
+Le nom Osmaronieae Rydb., 1918 est illégitime, car basé sur le genre type Osmaronia Greene, substitut superflu à Oemleria ; c'est donc un synonyme replacé.
 </t>
         </is>
       </c>
@@ -605,13 +623,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Reveal (2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Reveal (2010) :
 Exochorda Lindl.
 Lindleya Kunth, nom. cons.
 Oemleria Rchb.
-Selon GRIN            (15 avril 2024)[5] :
+Selon GRIN            (15 avril 2024) :
 Exochorda Lindl.
 Nuttallia Torr. &amp; A. Gray ex Hook. &amp; Arn. - synonyme d'Oemleria Rchb.
 Oemleria Rchb.
@@ -619,7 +639,7 @@
 Plagiospermum Oliv. - synonyme de Prinsepia Royle
 Prinsepia Royle
 Sinoplagiospermum Rauschert - synonyme de Prinsepia Royle
-Selon The Taxonomicon  (15 avril 2024)[6] :
+Selon The Taxonomicon  (15 avril 2024) :
 Kageneckia Ruiz &amp; Pav. (1794)
 Vauquelinia Correa ex Bonpl. (1807)
 Lindleya Kunth (1824), nom. cons.
